--- a/Comparisson sheet.xlsx
+++ b/Comparisson sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanolivares/Documents/Desarrollos/loadData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034874A4-AFA0-CC4B-A6E5-FB9D5F40BCCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D24283F-8E8C-994B-89C5-C0E12383B72F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" firstSheet="1" activeTab="3" xr2:uid="{1840D3A5-1E4C-4F43-964A-5BE51DE94BC9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" firstSheet="1" activeTab="5" xr2:uid="{1840D3A5-1E4C-4F43-964A-5BE51DE94BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="4" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="PR-100GB-GCP" sheetId="2" r:id="rId3"/>
     <sheet name="PR-1TB-Azure" sheetId="9" r:id="rId4"/>
     <sheet name="PR-1TB-GCP" sheetId="10" r:id="rId5"/>
-    <sheet name="PR-Comparisson" sheetId="3" r:id="rId6"/>
-    <sheet name="CR-100GB-Azure" sheetId="5" r:id="rId7"/>
-    <sheet name="CR-100GB-GCP" sheetId="6" r:id="rId8"/>
-    <sheet name="CR-100GB-Comparisson" sheetId="7" r:id="rId9"/>
-    <sheet name="CR-1TB-GCP" sheetId="8" r:id="rId10"/>
+    <sheet name="PR-10TB-Azure" sheetId="11" r:id="rId6"/>
+    <sheet name="PR-Comparisson" sheetId="3" r:id="rId7"/>
+    <sheet name="CR(20)-100GB-Azure" sheetId="5" r:id="rId8"/>
+    <sheet name="CR(20)-100GB-GCP" sheetId="6" r:id="rId9"/>
+    <sheet name="CR-100GB-Comparisson" sheetId="7" r:id="rId10"/>
+    <sheet name="CR-1TB-GCP" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="118">
   <si>
     <t>Label</t>
   </si>
@@ -2067,6 +2068,505 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Concurrent Run (20 Queries) - BigQuery</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - TPC-H 100GB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CR(20)-100GB-GCP'!$B$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CR(20)-100GB-GCP'!$D$5:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24670</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119612</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9967-2F4A-939A-BB10125849DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="212387344"/>
+        <c:axId val="212520208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="212387344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Query</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212520208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="212520208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212387344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2706,7 +3206,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4551,6 +5051,12 @@
                 <c:pt idx="5">
                   <c:v>7465</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>50816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80968</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5636,11 +6142,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5649,14 +6155,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-ES_tradnl"/>
-              <a:t>Power Run (single query) - TPC-H</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Power Run - Azure DWH</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-ES_tradnl" baseline="0"/>
-              <a:t> 100GB - BigQuery vs Azure DWH 500 DWU</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1000 DWU- TPC-H 1TB</a:t>
             </a:r>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5673,11 +6179,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -5699,88 +6205,47 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PR-Comparisson'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Azure DWH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PR-Comparisson'!$B$5:$B$16</c:f>
+              <c:f>'PR-10TB-Azure'!$B$5:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5824,247 +6289,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PR-Comparisson'!$E$5:$E$16</c:f>
+              <c:f>'PR-10TB-Azure'!$E$5:$E$16</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.17530000000000001</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6954500000000001</c:v>
+                  <c:v>142.572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59599999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17731666666666665</c:v>
+                  <c:v>141.70500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69015833333333332</c:v>
+                  <c:v>688.60299999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1250000000000003E-3</c:v>
+                  <c:v>1.3540000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46938333333333332</c:v>
+                  <c:v>1395.2619999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24531666666666666</c:v>
+                  <c:v>186.38200000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3236999999999999</c:v>
+                  <c:v>4085.8330000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.511808333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5633333333333344E-2</c:v>
+                  <c:v>19.827999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24088333333333331</c:v>
+                  <c:v>122.395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7433-1146-89B8-7159FAC09EE3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PR-Comparisson'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BigQuery</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'PR-Comparisson'!$B$5:$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'PR-Comparisson'!$F$5:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>7.3283333333333339E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17111666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23551666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13441666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54386666666666661</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.868333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28818333333333335</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54858333333333331</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5802833333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15436666666666668</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7433-1146-89B8-7159FAC09EE3}"/>
+              <c16:uniqueId val="{00000000-6DD4-0140-B251-8B927A2229DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="165587232"/>
-        <c:axId val="165534928"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="212387344"/>
+        <c:axId val="212520208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165587232"/>
+        <c:axId val="212387344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6077,11 +6362,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -6109,11 +6394,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -6150,8 +6435,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -6162,7 +6447,7 @@
             <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165534928"/>
+        <c:crossAx val="212520208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6170,7 +6455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165534928"/>
+        <c:axId val="212520208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6197,11 +6482,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -6211,7 +6496,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES_tradnl"/>
-                  <a:t>Tiempo ejecucion single query (min)</a:t>
+                  <a:t>sec</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6229,11 +6514,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -6245,8 +6530,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -6264,8 +6549,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -6276,7 +6561,7 @@
             <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165587232"/>
+        <c:crossAx val="212387344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6288,37 +6573,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6449,11 +6703,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PR-Comparisson'!$E$53</c:f>
+              <c:f>'PR-Comparisson'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Azure DWH 1000</c:v>
+                  <c:v>Azure DWH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6526,54 +6780,98 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PR-Comparisson'!$B$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PR-Comparisson'!$E$54:$E$65</c:f>
+              <c:f>'PR-Comparisson'!$E$5:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.17530000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1781666666666666</c:v>
+                  <c:v>2.6954500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.371316666666667</c:v>
+                  <c:v>0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64634999999999998</c:v>
+                  <c:v>0.17731666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9986166666666665</c:v>
+                  <c:v>0.69015833333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12441666666666666</c:v>
+                  <c:v>7.1250000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.46938333333333332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.24531666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.3236999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>22.511808333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.5633333333333344E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.24088333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F9A5-7D42-80D9-2B6E43D08E5A}"/>
+              <c16:uniqueId val="{00000005-7433-1146-89B8-7159FAC09EE3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6582,7 +6880,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PR-Comparisson'!$F$53</c:f>
+              <c:f>'PR-Comparisson'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6659,54 +6957,98 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PR-Comparisson'!$B$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PR-Comparisson'!$F$54:$F$65</c:f>
+              <c:f>'PR-Comparisson'!$F$5:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.13399999999999998</c:v>
+                  <c:v>7.3283333333333339E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73883333333333334</c:v>
+                  <c:v>0.17111666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9483333333333335</c:v>
+                  <c:v>0.23551666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58245000000000002</c:v>
+                  <c:v>0.13441666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.030933333333333</c:v>
+                  <c:v>0.54386666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1400000000000001E-2</c:v>
+                  <c:v>5.868333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7871666666666668</c:v>
+                  <c:v>0.28818333333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6640333333333333</c:v>
+                  <c:v>0.63500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5576999999999996</c:v>
+                  <c:v>0.54858333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7835500000000002</c:v>
+                  <c:v>1.5802833333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8135</c:v>
+                  <c:v>0.11389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59178333333333333</c:v>
+                  <c:v>0.15436666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F9A5-7D42-80D9-2B6E43D08E5A}"/>
+              <c16:uniqueId val="{00000006-7433-1146-89B8-7159FAC09EE3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7044,6 +7386,666 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Power Run (single query) - TPC-H</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" baseline="0"/>
+              <a:t> 100GB - BigQuery vs Azure DWH 500 DWU</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PR-Comparisson'!$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure DWH 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'PR-Comparisson'!$E$54:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1781666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.371316666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64634999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9986166666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12441666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84693333333333343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3494666666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9A5-7D42-80D9-2B6E43D08E5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PR-Comparisson'!$F$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BigQuery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'PR-Comparisson'!$F$54:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.13399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73883333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9483333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58245000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.030933333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7871666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6640333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5576999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7835500000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59178333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9A5-7D42-80D9-2B6E43D08E5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="165587232"/>
+        <c:axId val="165534928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="165587232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Query</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165534928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165534928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tiempo ejecucion single query (min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165587232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -7147,7 +8149,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'CR-100GB-Azure'!$B$5:$B$16</c:f>
+              <c:f>'CR(20)-100GB-Azure'!$B$5:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7191,7 +8193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CR-100GB-Azure'!$E$5:$E$16</c:f>
+              <c:f>'CR(20)-100GB-Azure'!$E$5:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7237,505 +8239,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F8C4-C146-9D22-E04DB9C6F411}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="212387344"/>
-        <c:axId val="212520208"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="212387344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES_tradnl"/>
-                  <a:t>Query</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="212520208"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="212520208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES_tradnl"/>
-                  <a:t>ms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="212387344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Concurrent Run (20 Queries) - BigQuery</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - TPC-H 100GB</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'CR-100GB-GCP'!$B$5:$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'CR-100GB-GCP'!$D$5:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>6818</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24670</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27539</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16593</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61643</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>88908</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85019</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>119612</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9669</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9385</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9967-2F4A-939A-BB10125849DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8141,6 +8644,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8987,509 +9530,6 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10014,7 +10054,510 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10539,7 +11082,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11064,7 +11607,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11589,7 +12132,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12114,1013 +12657,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13641,6 +13178,1537 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -14241,6 +15309,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5F5348-75D6-5042-851F-6D1DE21EC863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14380,6 +15491,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176CC58F-26A4-5F47-9654-8E751B56A7B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -14455,7 +15609,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14498,7 +15652,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14541,7 +15695,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14562,49 +15716,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D77C75-6613-1247-AA38-783CE3DE0093}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5F5348-75D6-5042-851F-6D1DE21EC863}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15212,6 +16323,335 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A376BC7E-38F7-D340-80C5-E978EE95D648}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'CR(20)-100GB-Azure'!D5:D16</f>
+        <v>2144</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'CR(20)-100GB-GCP'!D5</f>
+        <v>6818</v>
+      </c>
+      <c r="E5" s="31">
+        <f>(C5/1000)/60</f>
+        <v>3.5733333333333332E-2</v>
+      </c>
+      <c r="F5" s="31">
+        <f>(D5/1000)/60</f>
+        <v>0.11363333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'CR(20)-100GB-Azure'!D6:D17</f>
+        <v>1233160</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'CR(20)-100GB-GCP'!D6</f>
+        <v>24670</v>
+      </c>
+      <c r="E6" s="31">
+        <f t="shared" ref="E6:F16" si="0">(C6/1000)/60</f>
+        <v>20.552666666666667</v>
+      </c>
+      <c r="F6" s="31">
+        <f t="shared" si="0"/>
+        <v>0.41116666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'CR(20)-100GB-Azure'!D7:D18</f>
+        <v>341136</v>
+      </c>
+      <c r="D7" s="4">
+        <f>'CR(20)-100GB-GCP'!D7</f>
+        <v>27539</v>
+      </c>
+      <c r="E7" s="31">
+        <f t="shared" si="0"/>
+        <v>5.6856</v>
+      </c>
+      <c r="F7" s="31">
+        <f t="shared" si="0"/>
+        <v>0.45898333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <f>'CR(20)-100GB-Azure'!D8:D19</f>
+        <v>189277</v>
+      </c>
+      <c r="D8" s="4">
+        <f>'CR(20)-100GB-GCP'!D8</f>
+        <v>16593</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="0"/>
+        <v>3.1546166666666666</v>
+      </c>
+      <c r="F8" s="31">
+        <f t="shared" si="0"/>
+        <v>0.27655000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <f>'CR(20)-100GB-Azure'!D9:D20</f>
+        <v>591592</v>
+      </c>
+      <c r="D9" s="4">
+        <f>'CR(20)-100GB-GCP'!D9</f>
+        <v>61643</v>
+      </c>
+      <c r="E9" s="31">
+        <f t="shared" si="0"/>
+        <v>9.859866666666667</v>
+      </c>
+      <c r="F9" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0273833333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <f>'CR(20)-100GB-Azure'!D10:D21</f>
+        <v>600</v>
+      </c>
+      <c r="D10" s="4">
+        <f>'CR(20)-100GB-GCP'!D10</f>
+        <v>2806</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="0"/>
+        <v>4.6766666666666665E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <f>'CR(20)-100GB-Azure'!D11:D22</f>
+        <v>622519</v>
+      </c>
+      <c r="D11" s="4">
+        <f>'CR(20)-100GB-GCP'!D11</f>
+        <v>39300</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="0"/>
+        <v>10.375316666666667</v>
+      </c>
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
+        <v>0.65499999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <f>'CR(20)-100GB-Azure'!D12:D23</f>
+        <v>159016</v>
+      </c>
+      <c r="D12" s="4">
+        <f>'CR(20)-100GB-GCP'!D12</f>
+        <v>88908</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="0"/>
+        <v>2.6502666666666665</v>
+      </c>
+      <c r="F12" s="31">
+        <f t="shared" si="0"/>
+        <v>1.4818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
+        <f>'CR(20)-100GB-Azure'!D13:D24</f>
+        <v>1386968</v>
+      </c>
+      <c r="D13" s="4">
+        <f>'CR(20)-100GB-GCP'!D13</f>
+        <v>85019</v>
+      </c>
+      <c r="E13" s="31">
+        <f t="shared" si="0"/>
+        <v>23.116133333333334</v>
+      </c>
+      <c r="F13" s="31">
+        <f t="shared" si="0"/>
+        <v>1.4169833333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <f>'CR(20)-100GB-Azure'!D14:D25</f>
+        <v>55013</v>
+      </c>
+      <c r="D14" s="4">
+        <f>'CR(20)-100GB-GCP'!D14</f>
+        <v>119612</v>
+      </c>
+      <c r="E14" s="31">
+        <f t="shared" si="0"/>
+        <v>0.91688333333333327</v>
+      </c>
+      <c r="F14" s="31">
+        <f t="shared" si="0"/>
+        <v>1.9935333333333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <f>'CR(20)-100GB-Azure'!D15:D26</f>
+        <v>832769</v>
+      </c>
+      <c r="D15" s="4">
+        <f>'CR(20)-100GB-GCP'!D15</f>
+        <v>9669</v>
+      </c>
+      <c r="E15" s="31">
+        <f t="shared" si="0"/>
+        <v>13.879483333333333</v>
+      </c>
+      <c r="F15" s="31">
+        <f t="shared" si="0"/>
+        <v>0.16115000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <f>'CR(20)-100GB-Azure'!D16:D27</f>
+        <v>268474</v>
+      </c>
+      <c r="D16" s="4">
+        <f>'CR(20)-100GB-GCP'!D16</f>
+        <v>9385</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="0"/>
+        <v>4.4745666666666661</v>
+      </c>
+      <c r="F16" s="31">
+        <f t="shared" si="0"/>
+        <v>0.15641666666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:C16">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>C5&gt;D5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>C5&lt;D5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D16">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>C5&gt;D5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>C5&lt;D5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C90DC0C-BB14-FE46-82CA-78D3C88845E6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
@@ -17238,10 +18678,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F9166-7258-A54E-9934-F1D33787734A}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17513,11 +18953,15 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>50816</v>
+      </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50.816000000000003</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -17534,11 +18978,15 @@
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>80968</v>
+      </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80.968000000000004</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -17635,32 +19083,43 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="22" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R22" s="25"/>
     </row>
-    <row r="23" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R23" s="25"/>
-    </row>
-    <row r="24" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="U23" s="25"/>
+    </row>
+    <row r="24" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R24" s="25"/>
-    </row>
-    <row r="25" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="U24" s="25"/>
+    </row>
+    <row r="25" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R25" s="25"/>
-    </row>
-    <row r="26" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="U25" s="25"/>
+    </row>
+    <row r="26" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R26" s="25"/>
-    </row>
-    <row r="27" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="U26" s="25"/>
+    </row>
+    <row r="27" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R27" s="25"/>
-    </row>
-    <row r="28" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="U27" s="25"/>
+    </row>
+    <row r="28" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R28" s="25"/>
-    </row>
-    <row r="29" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="U28" s="25"/>
+    </row>
+    <row r="29" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R29" s="25"/>
-    </row>
-    <row r="30" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="U29" s="25"/>
+    </row>
+    <row r="30" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R30" s="25"/>
+      <c r="U30" s="25"/>
+    </row>
+    <row r="31" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="U31" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18407,6 +19866,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFDFE7F-E6C1-FC48-8850-3D1E6FC3BCEB}">
+  <dimension ref="A1:AD31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="27" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="R5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>13295</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12833</v>
+      </c>
+      <c r="V5" s="1">
+        <v>14277</v>
+      </c>
+      <c r="W5" s="1">
+        <v>14277</v>
+      </c>
+      <c r="X5" s="1">
+        <v>14277</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>12776</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>14277</v>
+      </c>
+      <c r="AA5" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>7.5209999999999999E-2</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>142572</v>
+      </c>
+      <c r="E6" s="31">
+        <f t="shared" ref="E6:E16" si="0">D6/1000</f>
+        <v>142.572</v>
+      </c>
+      <c r="F6" s="4">
+        <v>138258</v>
+      </c>
+      <c r="G6" s="4">
+        <v>156658</v>
+      </c>
+      <c r="H6" s="4">
+        <v>156658</v>
+      </c>
+      <c r="I6" s="4">
+        <v>156658</v>
+      </c>
+      <c r="J6" s="4">
+        <v>132801</v>
+      </c>
+      <c r="K6" s="4">
+        <v>156658</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>7.0099999999999997E-3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>6522.68</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>142572</v>
+      </c>
+      <c r="U6" s="1">
+        <v>138258</v>
+      </c>
+      <c r="V6" s="1">
+        <v>156658</v>
+      </c>
+      <c r="W6" s="1">
+        <v>156658</v>
+      </c>
+      <c r="X6" s="1">
+        <v>156658</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>132801</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>156658</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>7.0099999999999997E-3</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>6522.68</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="R7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>141705</v>
+      </c>
+      <c r="U7" s="1">
+        <v>141882</v>
+      </c>
+      <c r="V7" s="1">
+        <v>142450</v>
+      </c>
+      <c r="W7" s="1">
+        <v>142450</v>
+      </c>
+      <c r="X7" s="1">
+        <v>142450</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>140784</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>142450</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>7.0600000000000003E-3</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>141705</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="0"/>
+        <v>141.70500000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>141882</v>
+      </c>
+      <c r="G8" s="4">
+        <v>142450</v>
+      </c>
+      <c r="H8" s="4">
+        <v>142450</v>
+      </c>
+      <c r="I8" s="4">
+        <v>142450</v>
+      </c>
+      <c r="J8" s="4">
+        <v>140784</v>
+      </c>
+      <c r="K8" s="4">
+        <v>142450</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7.0600000000000003E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>688603</v>
+      </c>
+      <c r="U8" s="1">
+        <v>685138</v>
+      </c>
+      <c r="V8" s="1">
+        <v>699295</v>
+      </c>
+      <c r="W8" s="1">
+        <v>699295</v>
+      </c>
+      <c r="X8" s="1">
+        <v>699295</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>681376</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>699295</v>
+      </c>
+      <c r="AA8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>688603</v>
+      </c>
+      <c r="E9" s="31">
+        <f t="shared" si="0"/>
+        <v>688.60299999999995</v>
+      </c>
+      <c r="F9" s="4">
+        <v>685138</v>
+      </c>
+      <c r="G9" s="4">
+        <v>699295</v>
+      </c>
+      <c r="H9" s="4">
+        <v>699295</v>
+      </c>
+      <c r="I9" s="4">
+        <v>699295</v>
+      </c>
+      <c r="J9" s="4">
+        <v>681376</v>
+      </c>
+      <c r="K9" s="4">
+        <v>699295</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1354</v>
+      </c>
+      <c r="U9" s="1">
+        <v>126</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3814</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3814</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3814</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>123</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3814</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.73801000000000005</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1354</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="0"/>
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>126</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3814</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3814</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3814</v>
+      </c>
+      <c r="J10" s="4">
+        <v>123</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3814</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.73801000000000005</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1395262</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1377428</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1471615</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1471615</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1471615</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1336743</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1471615</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1395262</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="0"/>
+        <v>1395.2619999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1377428</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1471615</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1471615</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1471615</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1336743</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1471615</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>186382</v>
+      </c>
+      <c r="U11" s="1">
+        <v>189862</v>
+      </c>
+      <c r="V11" s="1">
+        <v>191404</v>
+      </c>
+      <c r="W11" s="1">
+        <v>191404</v>
+      </c>
+      <c r="X11" s="1">
+        <v>191404</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>177882</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>191404</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>186382</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="0"/>
+        <v>186.38200000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>189862</v>
+      </c>
+      <c r="G12" s="4">
+        <v>191404</v>
+      </c>
+      <c r="H12" s="4">
+        <v>191404</v>
+      </c>
+      <c r="I12" s="4">
+        <v>191404</v>
+      </c>
+      <c r="J12" s="4">
+        <v>177882</v>
+      </c>
+      <c r="K12" s="4">
+        <v>191404</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4085833</v>
+      </c>
+      <c r="U12" s="1">
+        <v>3700957</v>
+      </c>
+      <c r="V12" s="1">
+        <v>4863520</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4863520</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4863520</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>3693022</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4863520</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4085833</v>
+      </c>
+      <c r="E13" s="31">
+        <f t="shared" si="0"/>
+        <v>4085.8330000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3700957</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4863520</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4863520</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4863520</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3693022</v>
+      </c>
+      <c r="K13" s="4">
+        <v>4863520</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>19828</v>
+      </c>
+      <c r="U13" s="1">
+        <v>18479</v>
+      </c>
+      <c r="V13" s="1">
+        <v>22600</v>
+      </c>
+      <c r="W13" s="1">
+        <v>22600</v>
+      </c>
+      <c r="X13" s="1">
+        <v>22600</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>18406</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>22600</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>5.0430000000000003E-2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="R14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>122395</v>
+      </c>
+      <c r="U14" s="1">
+        <v>119364</v>
+      </c>
+      <c r="V14" s="1">
+        <v>130805</v>
+      </c>
+      <c r="W14" s="1">
+        <v>130805</v>
+      </c>
+      <c r="X14" s="1">
+        <v>130805</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>117017</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>130805</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>8.1700000000000002E-3</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>19828</v>
+      </c>
+      <c r="E15" s="31">
+        <f t="shared" si="0"/>
+        <v>19.827999999999999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>18479</v>
+      </c>
+      <c r="G15" s="4">
+        <v>22600</v>
+      </c>
+      <c r="H15" s="4">
+        <v>22600</v>
+      </c>
+      <c r="I15" s="4">
+        <v>22600</v>
+      </c>
+      <c r="J15" s="4">
+        <v>18406</v>
+      </c>
+      <c r="K15" s="4">
+        <v>22600</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>5.0430000000000003E-2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="1">
+        <v>30</v>
+      </c>
+      <c r="T15" s="1">
+        <v>679723</v>
+      </c>
+      <c r="U15" s="1">
+        <v>140784</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1471615</v>
+      </c>
+      <c r="W15" s="1">
+        <v>3693022</v>
+      </c>
+      <c r="X15" s="1">
+        <v>4863520</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>123</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4863520</v>
+      </c>
+      <c r="AA15" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1.23E-3</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>114.56</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>122395</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="0"/>
+        <v>122.395</v>
+      </c>
+      <c r="F16" s="4">
+        <v>119364</v>
+      </c>
+      <c r="G16" s="4">
+        <v>130805</v>
+      </c>
+      <c r="H16" s="4">
+        <v>130805</v>
+      </c>
+      <c r="I16" s="4">
+        <v>130805</v>
+      </c>
+      <c r="J16" s="4">
+        <v>117017</v>
+      </c>
+      <c r="K16" s="4">
+        <v>130805</v>
+      </c>
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>8.1700000000000002E-3</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="R23" s="25"/>
+      <c r="U23" s="25"/>
+    </row>
+    <row r="24" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="R24" s="25"/>
+      <c r="U24" s="25"/>
+    </row>
+    <row r="25" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="R25" s="25"/>
+      <c r="U25" s="25"/>
+    </row>
+    <row r="26" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="R26" s="25"/>
+      <c r="U26" s="25"/>
+    </row>
+    <row r="27" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="R27" s="25"/>
+      <c r="U27" s="25"/>
+    </row>
+    <row r="28" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="R28" s="25"/>
+      <c r="U28" s="25"/>
+    </row>
+    <row r="29" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="R29" s="25"/>
+      <c r="U29" s="25"/>
+    </row>
+    <row r="30" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="R30" s="25"/>
+      <c r="U30" s="25"/>
+    </row>
+    <row r="31" spans="18:21" x14ac:dyDescent="0.2">
+      <c r="U31" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA7412A-ADFE-A746-85E4-8CB944C55A03}">
   <dimension ref="A1:F65"/>
   <sheetViews>
@@ -18871,7 +21374,7 @@
       </c>
       <c r="C60" s="4">
         <f>'PR-1TB-Azure'!D11</f>
-        <v>0</v>
+        <v>50816</v>
       </c>
       <c r="D60" s="4">
         <f>'PR-1TB-GCP'!C11</f>
@@ -18879,7 +21382,7 @@
       </c>
       <c r="E60" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.84693333333333343</v>
       </c>
       <c r="F60" s="13">
         <f t="shared" si="2"/>
@@ -18892,7 +21395,7 @@
       </c>
       <c r="C61" s="4">
         <f>'PR-1TB-Azure'!D12</f>
-        <v>0</v>
+        <v>80968</v>
       </c>
       <c r="D61" s="4">
         <f>'PR-1TB-GCP'!C12</f>
@@ -18900,7 +21403,7 @@
       </c>
       <c r="E61" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3494666666666668</v>
       </c>
       <c r="F61" s="13">
         <f t="shared" si="2"/>
@@ -19035,7 +21538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3FAF6B-4EC0-6B43-BC35-4A5F786DA3E0}">
   <dimension ref="A1:P63"/>
   <sheetViews>
@@ -19885,7 +22388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB5436B-08BC-4845-8ED0-9C3761BC7E93}">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -20495,333 +22998,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A376BC7E-38F7-D340-80C5-E978EE95D648}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <f>'CR-100GB-Azure'!D5:D16</f>
-        <v>2144</v>
-      </c>
-      <c r="D5" s="4">
-        <f>'CR-100GB-GCP'!D5</f>
-        <v>6818</v>
-      </c>
-      <c r="E5" s="31">
-        <f>(C5/1000)/60</f>
-        <v>3.5733333333333332E-2</v>
-      </c>
-      <c r="F5" s="31">
-        <f>(D5/1000)/60</f>
-        <v>0.11363333333333332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4">
-        <f>'CR-100GB-Azure'!D6:D17</f>
-        <v>1233160</v>
-      </c>
-      <c r="D6" s="4">
-        <f>'CR-100GB-GCP'!D6</f>
-        <v>24670</v>
-      </c>
-      <c r="E6" s="31">
-        <f t="shared" ref="E6:F16" si="0">(C6/1000)/60</f>
-        <v>20.552666666666667</v>
-      </c>
-      <c r="F6" s="31">
-        <f t="shared" si="0"/>
-        <v>0.41116666666666668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4">
-        <f>'CR-100GB-Azure'!D7:D18</f>
-        <v>341136</v>
-      </c>
-      <c r="D7" s="4">
-        <f>'CR-100GB-GCP'!D7</f>
-        <v>27539</v>
-      </c>
-      <c r="E7" s="31">
-        <f t="shared" si="0"/>
-        <v>5.6856</v>
-      </c>
-      <c r="F7" s="31">
-        <f t="shared" si="0"/>
-        <v>0.45898333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
-        <f>'CR-100GB-Azure'!D8:D19</f>
-        <v>189277</v>
-      </c>
-      <c r="D8" s="4">
-        <f>'CR-100GB-GCP'!D8</f>
-        <v>16593</v>
-      </c>
-      <c r="E8" s="31">
-        <f t="shared" si="0"/>
-        <v>3.1546166666666666</v>
-      </c>
-      <c r="F8" s="31">
-        <f t="shared" si="0"/>
-        <v>0.27655000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4">
-        <f>'CR-100GB-Azure'!D9:D20</f>
-        <v>591592</v>
-      </c>
-      <c r="D9" s="4">
-        <f>'CR-100GB-GCP'!D9</f>
-        <v>61643</v>
-      </c>
-      <c r="E9" s="31">
-        <f t="shared" si="0"/>
-        <v>9.859866666666667</v>
-      </c>
-      <c r="F9" s="31">
-        <f t="shared" si="0"/>
-        <v>1.0273833333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4">
-        <f>'CR-100GB-Azure'!D10:D21</f>
-        <v>600</v>
-      </c>
-      <c r="D10" s="4">
-        <f>'CR-100GB-GCP'!D10</f>
-        <v>2806</v>
-      </c>
-      <c r="E10" s="31">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="31">
-        <f t="shared" si="0"/>
-        <v>4.6766666666666665E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4">
-        <f>'CR-100GB-Azure'!D11:D22</f>
-        <v>622519</v>
-      </c>
-      <c r="D11" s="4">
-        <f>'CR-100GB-GCP'!D11</f>
-        <v>39300</v>
-      </c>
-      <c r="E11" s="31">
-        <f t="shared" si="0"/>
-        <v>10.375316666666667</v>
-      </c>
-      <c r="F11" s="31">
-        <f t="shared" si="0"/>
-        <v>0.65499999999999992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4">
-        <f>'CR-100GB-Azure'!D12:D23</f>
-        <v>159016</v>
-      </c>
-      <c r="D12" s="4">
-        <f>'CR-100GB-GCP'!D12</f>
-        <v>88908</v>
-      </c>
-      <c r="E12" s="31">
-        <f t="shared" si="0"/>
-        <v>2.6502666666666665</v>
-      </c>
-      <c r="F12" s="31">
-        <f t="shared" si="0"/>
-        <v>1.4818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4">
-        <f>'CR-100GB-Azure'!D13:D24</f>
-        <v>1386968</v>
-      </c>
-      <c r="D13" s="4">
-        <f>'CR-100GB-GCP'!D13</f>
-        <v>85019</v>
-      </c>
-      <c r="E13" s="31">
-        <f t="shared" si="0"/>
-        <v>23.116133333333334</v>
-      </c>
-      <c r="F13" s="31">
-        <f t="shared" si="0"/>
-        <v>1.4169833333333335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4">
-        <f>'CR-100GB-Azure'!D14:D25</f>
-        <v>55013</v>
-      </c>
-      <c r="D14" s="4">
-        <f>'CR-100GB-GCP'!D14</f>
-        <v>119612</v>
-      </c>
-      <c r="E14" s="31">
-        <f t="shared" si="0"/>
-        <v>0.91688333333333327</v>
-      </c>
-      <c r="F14" s="31">
-        <f t="shared" si="0"/>
-        <v>1.9935333333333332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4">
-        <f>'CR-100GB-Azure'!D15:D26</f>
-        <v>832769</v>
-      </c>
-      <c r="D15" s="4">
-        <f>'CR-100GB-GCP'!D15</f>
-        <v>9669</v>
-      </c>
-      <c r="E15" s="31">
-        <f t="shared" si="0"/>
-        <v>13.879483333333333</v>
-      </c>
-      <c r="F15" s="31">
-        <f t="shared" si="0"/>
-        <v>0.16115000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4">
-        <f>'CR-100GB-Azure'!D16:D27</f>
-        <v>268474</v>
-      </c>
-      <c r="D16" s="4">
-        <f>'CR-100GB-GCP'!D16</f>
-        <v>9385</v>
-      </c>
-      <c r="E16" s="31">
-        <f t="shared" si="0"/>
-        <v>4.4745666666666661</v>
-      </c>
-      <c r="F16" s="31">
-        <f t="shared" si="0"/>
-        <v>0.15641666666666668</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C5:C16">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>C5&gt;D5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>C5&lt;D5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D16">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>C5&gt;D5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>C5&lt;D5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>